--- a/serve/backend/Historical Report Excel.xlsx
+++ b/serve/backend/Historical Report Excel.xlsx
@@ -14,9 +14,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>Data Unavailable in the selected range</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Parameter Name</t>
+  </si>
+  <si>
+    <t>Minimum</t>
+  </si>
+  <si>
+    <t>Maximum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Voltage Ph2_EM3</t>
+  </si>
+  <si>
+    <t>Voltage Ph3_EM3</t>
   </si>
 </sst>
 </file>
@@ -374,23 +392,67 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="B1" s="1">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>0</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>240.783434</v>
+      </c>
+      <c r="E2">
+        <v>240.783434</v>
+      </c>
+      <c r="F2">
+        <v>240.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3">
+        <v>240.0887146</v>
+      </c>
+      <c r="E3">
+        <v>240.3149719</v>
+      </c>
+      <c r="F3">
+        <v>240.22</v>
       </c>
     </row>
   </sheetData>
